--- a/S.xlsx
+++ b/S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8383D693-0676-4F72-8FDE-042D0E96AE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E015142-CEBB-463F-A53A-3F52FCE6EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20355" yWindow="735" windowWidth="20160" windowHeight="17280" activeTab="1" xr2:uid="{DD79AD4D-6052-4513-A158-440A44B3A9BB}"/>
+    <workbookView xWindow="-43800" yWindow="1005" windowWidth="21060" windowHeight="17130" activeTab="1" xr2:uid="{DD79AD4D-6052-4513-A158-440A44B3A9BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1325FFD6-322A-4630-9F07-DFACFE1748A6}</author>
+    <author>Martin Shkreli</author>
+  </authors>
+  <commentList>
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{1325FFD6-322A-4630-9F07-DFACFE1748A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 guidance: 228m</t>
+      </text>
+    </comment>
+    <comment ref="Z5" authorId="1" shapeId="0" xr:uid="{C31208FB-899D-4D4D-AF17-47E9F415AED6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FYQ425 guidance: 1007-1012</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
@@ -167,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -188,6 +231,19 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -212,15 +268,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -236,8 +292,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -313,14 +368,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>604158</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15340</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>604158</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15340</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>157843</xdr:rowOff>
     </xdr:to>
@@ -337,8 +392,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15631887" y="0"/>
-          <a:ext cx="0" cy="7342414"/>
+          <a:off x="15657988" y="0"/>
+          <a:ext cx="0" cy="7206343"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -362,6 +417,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{5D30A4E7-111B-42B3-B99B-2BCDE45598E9}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,11 +740,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O5" dT="2025-04-01T16:35:31.60" personId="{5D30A4E7-111B-42B3-B99B-2BCDE45598E9}" id="{1325FFD6-322A-4630-9F07-DFACFE1748A6}">
+    <text>Q424 guidance: 228m</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602E3566-4F3D-4194-8897-2B17378155B1}">
   <dimension ref="I2:K10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -692,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="3" spans="9:11" x14ac:dyDescent="0.2">
@@ -700,11 +771,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f>295.079043+26.262451</f>
-        <v>321.34149400000001</v>
+        <v>315.45776699999999</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="9:11" x14ac:dyDescent="0.2">
@@ -713,7 +783,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>5687.7444438000002</v>
+        <v>5832.8141118299991</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -746,7 +816,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>4563.9434438000008</v>
+        <v>4709.0131118299996</v>
       </c>
     </row>
     <row r="10" spans="9:11" x14ac:dyDescent="0.2">
@@ -760,14 +830,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23BE28A-A372-4C5A-B2A2-5A6D3A5CFD96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23BE28A-A372-4C5A-B2A2-5A6D3A5CFD96}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE25" sqref="AE25"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,47 +958,47 @@
         <v>2024</v>
       </c>
       <c r="Y2">
-        <f>+X2+1</f>
+        <f t="shared" ref="Y2:AI2" si="0">+X2+1</f>
         <v>2025</v>
       </c>
       <c r="Z2">
-        <f>+Y2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="AA2">
-        <f>+Z2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="AB2">
-        <f>+AA2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="AC2">
-        <f>+AB2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="AD2">
-        <f>+AC2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="AE2">
-        <f>+AD2+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="AF2">
-        <f>+AE2+1</f>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="AG2">
-        <f>+AF2+1</f>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="AH2">
-        <f>+AG2+1</f>
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
       <c r="AI2">
-        <f>+AH2+1</f>
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
@@ -947,7 +1017,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6">
+        <v>1411</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -961,6 +1033,10 @@
       <c r="X3" s="2">
         <v>1133</v>
       </c>
+      <c r="Y3" s="2">
+        <f>+N3</f>
+        <v>1411</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -994,10 +1070,21 @@
       <c r="N5" s="8">
         <v>225.52099999999999</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="O5" s="8">
+        <v>228</v>
+      </c>
+      <c r="P5" s="8">
+        <f>+L5*1.2</f>
+        <v>238.7244</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>+M5*1.2</f>
+        <v>252.77759999999998</v>
+      </c>
+      <c r="R5" s="8">
+        <f>+N5*1.2</f>
+        <v>270.62519999999995</v>
+      </c>
       <c r="V5" s="7">
         <v>204.79900000000001</v>
       </c>
@@ -1081,32 +1168,32 @@
       <c r="X6" s="2">
         <v>179.28100000000001</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="2">
         <f>SUM(K6:N6)</f>
         <v>211.10599999999999</v>
       </c>
       <c r="Z6" s="2">
-        <f>+Z5-Z7</f>
+        <f t="shared" ref="Z6:AE6" si="1">+Z5-Z7</f>
         <v>256.70656250000002</v>
       </c>
       <c r="AA6" s="2">
-        <f>+AA5-AA7</f>
+        <f t="shared" si="1"/>
         <v>320.88320312500002</v>
       </c>
       <c r="AB6" s="2">
-        <f>+AB5-AB7</f>
+        <f t="shared" si="1"/>
         <v>385.05984375000003</v>
       </c>
       <c r="AC6" s="2">
-        <f>+AC5-AC7</f>
+        <f t="shared" si="1"/>
         <v>442.81882031250007</v>
       </c>
       <c r="AD6" s="2">
-        <f>+AD5-AD7</f>
+        <f t="shared" si="1"/>
         <v>509.24164335937485</v>
       </c>
       <c r="AE6" s="2">
-        <f>+AE5-AE7</f>
+        <f t="shared" si="1"/>
         <v>585.62788986328133</v>
       </c>
     </row>
@@ -1131,7 +1218,7 @@
         <v>120.39999999999999</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" ref="J7" si="0">+J5-J6</f>
+        <f t="shared" ref="J7" si="2">+J5-J6</f>
         <v>125.90900000000002</v>
       </c>
       <c r="K7" s="6">
@@ -1155,11 +1242,11 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="V7" s="2">
-        <f t="shared" ref="V7:W7" si="1">+V5-V6</f>
+        <f t="shared" ref="V7:W7" si="3">+V5-V6</f>
         <v>123.122</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>278.00199999999995</v>
       </c>
       <c r="X7" s="2">
@@ -1171,27 +1258,27 @@
         <v>610.35500000000002</v>
       </c>
       <c r="Z7" s="2">
-        <f>+Z5*0.75</f>
+        <f t="shared" ref="Z7:AE7" si="4">+Z5*0.75</f>
         <v>770.11968750000005</v>
       </c>
       <c r="AA7" s="2">
-        <f>+AA5*0.75</f>
+        <f t="shared" si="4"/>
         <v>962.64960937500007</v>
       </c>
       <c r="AB7" s="2">
-        <f>+AB5*0.75</f>
+        <f t="shared" si="4"/>
         <v>1155.1795312500001</v>
       </c>
       <c r="AC7" s="2">
-        <f>+AC5*0.75</f>
+        <f t="shared" si="4"/>
         <v>1328.4564609375</v>
       </c>
       <c r="AD7" s="2">
-        <f>+AD5*0.75</f>
+        <f t="shared" si="4"/>
         <v>1527.724930078125</v>
       </c>
       <c r="AE7" s="2">
-        <f>+AE5*0.75</f>
+        <f t="shared" si="4"/>
         <v>1756.8836695898435</v>
       </c>
     </row>
@@ -1240,8 +1327,8 @@
       <c r="X8" s="2">
         <v>218.17599999999999</v>
       </c>
-      <c r="Y8" s="12">
-        <f t="shared" ref="Y8:Y9" si="2">SUM(K8:N8)</f>
+      <c r="Y8" s="2">
+        <f t="shared" ref="Y8:Y9" si="5">SUM(K8:N8)</f>
         <v>267.00200000000001</v>
       </c>
       <c r="Z8" s="2">
@@ -1249,23 +1336,23 @@
         <v>269.67202000000003</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" ref="AA8:AD8" si="3">+Z8*1.01</f>
+        <f t="shared" ref="AA8:AD8" si="6">+Z8*1.01</f>
         <v>272.36874020000005</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>275.09242760200004</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>277.84335187802003</v>
       </c>
       <c r="AD8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>280.62178539680025</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" ref="AE8" si="4">+AD8*1.01</f>
+        <f t="shared" ref="AE8" si="7">+AD8*1.01</f>
         <v>283.42800325076826</v>
       </c>
     </row>
@@ -1314,32 +1401,32 @@
       <c r="X9" s="2">
         <v>397.16</v>
       </c>
-      <c r="Y9" s="12">
-        <f t="shared" si="2"/>
+      <c r="Y9" s="2">
+        <f t="shared" si="5"/>
         <v>487.22499999999997</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" ref="Z9:AD9" si="5">+Y9*1.01</f>
+        <f t="shared" ref="Z9:AD9" si="8">+Y9*1.01</f>
         <v>492.09724999999997</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>497.01822249999998</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>501.98840472500001</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>507.00828877225001</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>512.0783716599725</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" ref="AE9" si="6">+AD9*1.01</f>
+        <f t="shared" ref="AE9" si="9">+AD9*1.01</f>
         <v>517.19915537657221</v>
       </c>
     </row>
@@ -1388,32 +1475,32 @@
       <c r="X10" s="2">
         <v>198.24700000000001</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="2">
         <f>SUM(K10:N10)</f>
         <v>185.48699999999999</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" ref="Z10:AD10" si="7">+Y10*1.01</f>
+        <f t="shared" ref="Z10:AD10" si="10">+Y10*1.01</f>
         <v>187.34187</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>189.2152887</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>191.10744158700001</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>193.01851600287</v>
       </c>
       <c r="AD10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>194.94870116289871</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" ref="AE10" si="8">+AD10*1.01</f>
+        <f t="shared" ref="AE10" si="11">+AD10*1.01</f>
         <v>196.89818817452772</v>
       </c>
     </row>
@@ -1438,7 +1525,7 @@
         <v>201.79399999999998</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" ref="J11" si="9">+J10+J9+J8</f>
+        <f t="shared" ref="J11" si="12">+J10+J9+J8</f>
         <v>204.74600000000001</v>
       </c>
       <c r="K11" s="6">
@@ -1478,27 +1565,27 @@
         <v>939.71399999999994</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" ref="Z11:AE11" si="10">SUM(Z8:Z10)</f>
+        <f t="shared" ref="Z11:AE11" si="13">SUM(Z8:Z10)</f>
         <v>949.11113999999998</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>958.6022514</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>968.18827391400009</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>977.87015665314004</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>987.64885821967141</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>997.52534680186818</v>
       </c>
     </row>
@@ -1523,7 +1610,7 @@
         <v>-81.393999999999991</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" ref="J12" si="11">+J7-J11</f>
+        <f t="shared" ref="J12" si="14">+J7-J11</f>
         <v>-78.836999999999989</v>
       </c>
       <c r="K12" s="6">
@@ -1563,27 +1650,27 @@
         <v>-329.35899999999992</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" ref="Z12:AE12" si="12">+Z7-Z11</f>
+        <f t="shared" ref="Z12:AE12" si="15">+Z7-Z11</f>
         <v>-178.99145249999992</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.0473579750000681</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>186.99125733599999</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>350.58630428435993</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>540.07607185845359</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>759.35832278797534</v>
       </c>
     </row>
@@ -1627,32 +1714,32 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="Y13" s="12">
+      <c r="Y13" s="2">
         <f>SUM(K13:N13)</f>
         <v>49.227000000000004</v>
       </c>
       <c r="Z13" s="2">
-        <f>+Y13</f>
+        <f t="shared" ref="Z13:AE13" si="16">+Y13</f>
         <v>49.227000000000004</v>
       </c>
       <c r="AA13" s="2">
-        <f>+Z13</f>
+        <f t="shared" si="16"/>
         <v>49.227000000000004</v>
       </c>
       <c r="AB13" s="2">
-        <f>+AA13</f>
+        <f t="shared" si="16"/>
         <v>49.227000000000004</v>
       </c>
       <c r="AC13" s="2">
-        <f>+AB13</f>
+        <f t="shared" si="16"/>
         <v>49.227000000000004</v>
       </c>
       <c r="AD13" s="2">
-        <f>+AC13</f>
+        <f t="shared" si="16"/>
         <v>49.227000000000004</v>
       </c>
       <c r="AE13" s="2">
-        <f>+AD13</f>
+        <f t="shared" si="16"/>
         <v>49.227000000000004</v>
       </c>
     </row>
@@ -1665,19 +1752,19 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
-        <f t="shared" ref="G14:J14" si="13">+G12+G13</f>
+        <f t="shared" ref="G14:J14" si="17">+G12+G13</f>
         <v>-104.84200000000001</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-83.204000000000008</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-68.912999999999997</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-66.85799999999999</v>
       </c>
       <c r="K14" s="6">
@@ -1701,43 +1788,43 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="V14" s="6">
-        <f t="shared" ref="V14:AE14" si="14">+V12+V13</f>
+        <f t="shared" ref="V14:AE14" si="18">+V12+V13</f>
         <v>-267.23200000000003</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-402.57600000000002</v>
       </c>
       <c r="X14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-371.71000000000009</v>
       </c>
       <c r="Y14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-280.13199999999995</v>
       </c>
       <c r="Z14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-129.76445249999992</v>
       </c>
       <c r="AA14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>53.274357975000072</v>
       </c>
       <c r="AB14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>236.21825733599999</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>399.8133042843599</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>589.30307185845356</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>808.58532278797531</v>
       </c>
     </row>
@@ -1777,7 +1864,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="Y15" s="12">
+      <c r="Y15" s="2">
         <f>SUM(K15:N15)</f>
         <v>6.8339999999999996</v>
       </c>
@@ -1817,23 +1904,23 @@
         <v>-70.22999999999999</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" ref="J16" si="15">+J14-J15</f>
+        <f t="shared" ref="J16" si="19">+J14-J15</f>
         <v>-68.36999999999999</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" ref="K16:N16" si="16">+K14-K15</f>
+        <f t="shared" ref="K16:N16" si="20">+K14-K15</f>
         <v>-70.03000000000003</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-69.183999999999997</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-78.364000000000004</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-69.388000000000019</v>
       </c>
       <c r="O16" s="6"/>
@@ -1841,43 +1928,43 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="V16" s="2">
-        <f>+V14-V15</f>
+        <f t="shared" ref="V16:AE16" si="21">+V14-V15</f>
         <v>-267.23200000000003</v>
       </c>
       <c r="W16" s="2">
-        <f>+W14-W15</f>
+        <f t="shared" si="21"/>
         <v>-402.57600000000002</v>
       </c>
       <c r="X16" s="2">
-        <f>+X14-X15</f>
+        <f t="shared" si="21"/>
         <v>-371.71000000000009</v>
       </c>
       <c r="Y16" s="2">
-        <f>+Y14-Y15</f>
+        <f t="shared" si="21"/>
         <v>-286.96599999999995</v>
       </c>
       <c r="Z16" s="2">
-        <f>+Z14-Z15</f>
+        <f t="shared" si="21"/>
         <v>-129.76445249999992</v>
       </c>
       <c r="AA16" s="2">
-        <f>+AA14-AA15</f>
+        <f t="shared" si="21"/>
         <v>53.274357975000072</v>
       </c>
       <c r="AB16" s="2">
-        <f>+AB14-AB15</f>
+        <f t="shared" si="21"/>
         <v>236.21825733599999</v>
       </c>
       <c r="AC16" s="2">
-        <f>+AC14-AC15</f>
+        <f t="shared" si="21"/>
         <v>399.8133042843599</v>
       </c>
       <c r="AD16" s="2">
-        <f>+AD14-AD15</f>
+        <f t="shared" si="21"/>
         <v>589.30307185845356</v>
       </c>
       <c r="AE16" s="2">
-        <f>+AE14-AE15</f>
+        <f t="shared" si="21"/>
         <v>808.58532278797531</v>
       </c>
     </row>
@@ -1898,7 +1985,7 @@
         <v>-0.23955351481747977</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" ref="J17" si="17">+J16/J18</f>
+        <f t="shared" ref="J17" si="22">+J16/J18</f>
         <v>-0.22087064948663659</v>
       </c>
       <c r="K17" s="9">
@@ -1954,10 +2041,6 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="V18" t="e">
-        <f>AVERAGE(C18:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="W18" s="2">
         <f>AVERAGE(G18:J18)</f>
         <v>296.04730000000001</v>
@@ -1966,6 +2049,9 @@
         <f>AVERAGE(K18:N18)</f>
         <v>313.28943749999996</v>
       </c>
+      <c r="Y18" s="2">
+        <v>315.45776699999999</v>
+      </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -1987,20 +2073,32 @@
         <f>+N5/J5-1</f>
         <v>0.29479546433185</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13">
+      <c r="O20" s="10">
+        <f>+O5/K5-1</f>
+        <v>0.22347133159829369</v>
+      </c>
+      <c r="P20" s="10">
+        <f>+P5/L5-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Q20" s="10">
+        <f>+Q5/M5-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="R20" s="10">
+        <f>+R5/N5-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12">
         <f>+W5/V5-1</f>
         <v>1.061430964018379</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X20" s="12">
         <f>+X5/W5-1</f>
         <v>0.47130482567820775</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="Y20" s="12">
         <f>+Y5/X5-1</f>
         <v>0.32247558576456092</v>
       </c>
@@ -2010,19 +2108,19 @@
         <v>34</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" ref="G21:J21" si="18">+G7/G5</f>
+        <f t="shared" ref="G21:J21" si="23">+G7/G5</f>
         <v>0.68077035526601848</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.70106611520469009</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.73340846099960399</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.72288790010047377</v>
       </c>
       <c r="K21" s="10">
@@ -2045,6 +2143,22 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
+      <c r="V21" s="12">
+        <f t="shared" ref="V21:Y21" si="24">+V7/V5</f>
+        <v>0.60118457609656295</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="24"/>
+        <v>0.6584931983826765</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" si="24"/>
+        <v>0.71137431297230636</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>+Y7/Y5</f>
+        <v>0.74301153676193998</v>
+      </c>
     </row>
     <row r="23" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -2091,6 +2205,9 @@
       <c r="X23" s="2">
         <v>-68.373999999999995</v>
       </c>
+      <c r="Y23" s="2">
+        <v>33.728000000000002</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2098,5 +2215,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>